--- a/data/Inflow_2019_hourly_Sample_Data.xlsx
+++ b/data/Inflow_2019_hourly_Sample_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Inflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA9FEF3-4B1F-480F-8C07-C8D09E826D82}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6C8C809-C62D-4225-A7C5-614C9626A9D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Datum</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Inflow</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>inflow</t>
   </si>
 </sst>
 </file>
@@ -101,10 +107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +434,7 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*536)</f>
-        <v>339</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -444,7 +446,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">INT(RAND()*536)</f>
-        <v>440</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -456,7 +458,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -468,7 +470,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -480,7 +482,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -492,7 +494,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -504,7 +506,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -516,7 +518,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -528,7 +530,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -540,7 +542,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -552,7 +554,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>519</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -564,7 +566,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>416</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -576,7 +578,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -588,7 +590,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -600,7 +602,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -612,7 +614,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -624,7 +626,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -636,7 +638,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>354</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -648,7 +650,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -660,7 +662,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -672,7 +674,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -684,7 +686,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>365</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -696,7 +698,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -708,7 +710,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -720,7 +722,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -732,7 +734,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,7 +746,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -756,7 +758,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -768,7 +770,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>443</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -780,7 +782,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -792,7 +794,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -804,7 +806,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -816,7 +818,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -828,7 +830,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,7 +842,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -852,7 +854,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -864,7 +866,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -876,7 +878,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -888,7 +890,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -900,7 +902,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>246</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -912,7 +914,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>419</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -924,7 +926,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>448</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -936,7 +938,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -948,7 +950,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -960,7 +962,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -972,7 +974,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -984,7 +986,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -996,7 +998,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1008,7 +1010,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1020,7 +1022,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>353</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1032,7 +1034,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1044,7 +1046,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>470</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1056,7 +1058,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>325</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1068,7 +1070,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1080,7 +1082,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1092,7 +1094,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>483</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1104,7 +1106,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>259</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1116,7 +1118,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1128,7 +1130,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>473</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1140,7 +1142,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1152,7 +1154,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>346</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1164,7 +1166,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>447</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1176,7 +1178,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1188,7 +1190,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1200,7 +1202,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>519</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1212,7 +1214,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C122" ca="1" si="1">INT(RAND()*536)</f>
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1224,7 +1226,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1236,7 +1238,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1248,7 +1250,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1260,7 +1262,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1272,7 +1274,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>448</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1284,7 +1286,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>302</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1296,7 +1298,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>531</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1308,7 +1310,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>469</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1320,7 +1322,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="1"/>
-        <v>347</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1332,7 +1334,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1344,7 +1346,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="1"/>
-        <v>506</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1356,7 +1358,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="1"/>
-        <v>386</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1368,7 +1370,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="1"/>
-        <v>493</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1380,7 +1382,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1392,7 +1394,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="1"/>
-        <v>440</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1404,7 +1406,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1416,7 +1418,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1428,7 +1430,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="1"/>
-        <v>292</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -1440,7 +1442,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="1"/>
-        <v>273</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1452,7 +1454,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="1"/>
-        <v>225</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1464,7 +1466,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1476,7 +1478,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -1488,7 +1490,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="1"/>
-        <v>175</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1500,7 +1502,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1512,7 +1514,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1524,7 +1526,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1536,7 +1538,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1548,7 +1550,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="1"/>
-        <v>236</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1560,7 +1562,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="1"/>
-        <v>391</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -1572,7 +1574,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="1"/>
-        <v>387</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -1584,7 +1586,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="1"/>
-        <v>183</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -1596,7 +1598,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="1"/>
-        <v>188</v>
+        <v>508</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1608,7 +1610,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1620,7 +1622,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="1"/>
-        <v>342</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1632,7 +1634,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="1"/>
-        <v>515</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1644,7 +1646,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="1"/>
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1656,7 +1658,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="1"/>
-        <v>340</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1668,7 +1670,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="1"/>
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1680,7 +1682,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1692,7 +1694,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="1"/>
-        <v>164</v>
+        <v>193</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1704,7 +1706,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1716,7 +1718,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1728,7 +1730,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="1"/>
-        <v>251</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -1740,7 +1742,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="1"/>
-        <v>444</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -1752,7 +1754,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="1"/>
-        <v>480</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -1764,7 +1766,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -1776,7 +1778,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="1"/>
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -1788,7 +1790,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -1800,7 +1802,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="1"/>
-        <v>390</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -1812,7 +1814,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -1824,7 +1826,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="1"/>
-        <v>465</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -1836,7 +1838,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="1"/>
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -1848,7 +1850,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="1"/>
-        <v>448</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -1860,7 +1862,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -1872,7 +1874,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="1"/>
-        <v>463</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2859,17 +2861,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C093E5-03ED-44BD-91FE-22A352193DC4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>30</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inflow_2019_hourly_Sample_Data.xlsx
+++ b/data/Inflow_2019_hourly_Sample_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Inflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6C8C809-C62D-4225-A7C5-614C9626A9D1}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342A13DB-8BD6-487D-B368-C5ACE4E05FC3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
   </bookViews>
@@ -107,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,7 +438,7 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*536)</f>
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -446,7 +450,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">INT(RAND()*536)</f>
-        <v>160</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -458,7 +462,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -470,7 +474,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -482,7 +486,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -494,7 +498,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>357</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -506,7 +510,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>498</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -518,7 +522,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -530,7 +534,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>346</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -542,7 +546,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -554,7 +558,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>462</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -566,7 +570,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>251</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -578,7 +582,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -590,7 +594,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -602,7 +606,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -614,7 +618,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -626,7 +630,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -638,7 +642,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -650,7 +654,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -662,7 +666,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -674,7 +678,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -686,7 +690,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>443</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -698,7 +702,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>303</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -710,7 +714,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,7 +726,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -734,7 +738,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>482</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -746,7 +750,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -758,7 +762,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -770,7 +774,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -782,7 +786,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -794,7 +798,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>459</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -806,7 +810,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -818,7 +822,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -830,7 +834,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -842,7 +846,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>385</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -854,7 +858,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>463</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -866,7 +870,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>497</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -878,7 +882,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>349</v>
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -890,7 +894,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -902,7 +906,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>473</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -914,7 +918,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -926,7 +930,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -938,7 +942,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -950,7 +954,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -962,7 +966,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -974,7 +978,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>324</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -986,7 +990,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -998,7 +1002,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1010,7 +1014,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>266</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1022,7 +1026,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1034,7 +1038,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>242</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1046,7 +1050,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>287</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1058,7 +1062,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>479</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1070,7 +1074,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1082,7 +1086,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>421</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1094,7 +1098,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1106,7 +1110,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>344</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1118,7 +1122,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1130,7 +1134,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>214</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1142,7 +1146,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>509</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1154,7 +1158,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1166,7 +1170,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1178,7 +1182,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1190,7 +1194,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>321</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1202,7 +1206,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1214,7 +1218,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C122" ca="1" si="1">INT(RAND()*536)</f>
-        <v>381</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1226,7 +1230,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1238,7 +1242,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>376</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1250,7 +1254,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1262,7 +1266,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>332</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1274,7 +1278,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1286,7 +1290,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>529</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1298,7 +1302,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1310,7 +1314,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1322,7 +1326,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="1"/>
-        <v>294</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1334,7 +1338,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="1"/>
-        <v>249</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1346,7 +1350,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1358,7 +1362,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1370,7 +1374,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="1"/>
-        <v>365</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1382,7 +1386,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1394,7 +1398,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="1"/>
-        <v>391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1406,7 +1410,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1418,7 +1422,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1430,7 +1434,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -1442,7 +1446,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1454,7 +1458,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1466,7 +1470,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1478,7 +1482,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="1"/>
-        <v>492</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -1490,7 +1494,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="1"/>
-        <v>357</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1502,7 +1506,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="1"/>
-        <v>474</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1514,7 +1518,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="1"/>
-        <v>335</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1526,7 +1530,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="1"/>
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1538,7 +1542,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="1"/>
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1550,7 +1554,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="1"/>
-        <v>327</v>
+        <v>287</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1562,7 +1566,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="1"/>
-        <v>458</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -1574,7 +1578,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="1"/>
-        <v>271</v>
+        <v>521</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -1586,7 +1590,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -1598,7 +1602,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="1"/>
-        <v>508</v>
+        <v>460</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1610,7 +1614,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1622,7 +1626,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1634,7 +1638,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="1"/>
-        <v>415</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1646,7 +1650,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1658,7 +1662,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1670,7 +1674,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="1"/>
-        <v>387</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1682,7 +1686,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1694,7 +1698,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1706,7 +1710,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1718,7 +1722,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1730,7 +1734,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="1"/>
-        <v>436</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -1742,7 +1746,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="1"/>
-        <v>533</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -1754,7 +1758,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -1766,7 +1770,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -1778,7 +1782,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="1"/>
-        <v>178</v>
+        <v>264</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -1790,7 +1794,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="1"/>
-        <v>441</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -1802,7 +1806,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -1814,7 +1818,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>518</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -1826,7 +1830,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="1"/>
-        <v>184</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -1838,7 +1842,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="1"/>
-        <v>269</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -1850,7 +1854,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="1"/>
-        <v>330</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -1862,7 +1866,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="1"/>
-        <v>485</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -1874,7 +1878,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2861,10 +2865,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C093E5-03ED-44BD-91FE-22A352193DC4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2885,6 +2889,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Inflow_2019_hourly_Sample_Data.xlsx
+++ b/data/Inflow_2019_hourly_Sample_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Inflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{342A13DB-8BD6-487D-B368-C5ACE4E05FC3}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195DC50D-3DB5-4F5D-B588-F5E2C1B47C4F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
+    <workbookView xWindow="-14348" yWindow="158" windowWidth="14431" windowHeight="8182" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*536)</f>
-        <v>380</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -450,7 +450,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">INT(RAND()*536)</f>
-        <v>239</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -462,7 +462,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -474,7 +474,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>428</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -486,7 +486,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -498,7 +498,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>442</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -510,7 +510,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -522,7 +522,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -534,7 +534,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -546,7 +546,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -558,7 +558,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -570,7 +570,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -582,7 +582,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -594,7 +594,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -606,7 +606,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>315</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -618,7 +618,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -630,7 +630,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -642,7 +642,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>437</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -654,7 +654,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>443</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -666,7 +666,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>137</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -678,7 +678,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>528</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -690,7 +690,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>517</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -702,7 +702,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -714,7 +714,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -726,7 +726,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,7 +738,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -750,7 +750,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -762,7 +762,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -774,7 +774,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,7 +810,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -822,7 +822,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>233</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -834,7 +834,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -846,7 +846,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +870,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -882,7 +882,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>459</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -894,7 +894,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -906,7 +906,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -918,7 +918,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>416</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -930,7 +930,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -942,7 +942,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>521</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -954,7 +954,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -966,7 +966,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>409</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -978,7 +978,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>456</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -990,7 +990,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>520</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>370</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>244</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>138</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>188</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>319</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C122" ca="1" si="1">INT(RAND()*536)</f>
-        <v>491</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>514</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>417</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>409</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>413</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="1"/>
-        <v>208</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="1"/>
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="1"/>
-        <v>412</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="1"/>
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="1"/>
-        <v>372</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="1"/>
-        <v>390</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="1"/>
-        <v>165</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="1"/>
-        <v>263</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="1"/>
-        <v>451</v>
+        <v>228</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="1"/>
-        <v>287</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="1"/>
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="1"/>
-        <v>521</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="1"/>
-        <v>452</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="1"/>
-        <v>341</v>
+        <v>502</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="1"/>
-        <v>477</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="1"/>
-        <v>515</v>
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="1"/>
-        <v>502</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="1"/>
-        <v>238</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="1"/>
-        <v>250</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="1"/>
-        <v>318</v>
+        <v>418</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="1"/>
-        <v>465</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="1"/>
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="1"/>
-        <v>518</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="1"/>
-        <v>331</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="1"/>
-        <v>308</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2868,7 +2868,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2894,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inflow_2019_hourly_Sample_Data.xlsx
+++ b/data/Inflow_2019_hourly_Sample_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{195DC50D-3DB5-4F5D-B588-F5E2C1B47C4F}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C7D7A8-20B3-4203-8038-A310AB195479}"/>
   <bookViews>
-    <workbookView xWindow="-14348" yWindow="158" windowWidth="14431" windowHeight="8182" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
+    <workbookView xWindow="-1860" yWindow="1260" windowWidth="19240" windowHeight="10910" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +434,7 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*536)</f>
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -450,7 +446,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">INT(RAND()*536)</f>
-        <v>31</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -462,7 +458,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>128</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -474,7 +470,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -486,7 +482,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -498,7 +494,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -510,7 +506,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -522,7 +518,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -534,7 +530,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -546,7 +542,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>117</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -558,7 +554,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -570,7 +566,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -582,7 +578,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -594,7 +590,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>305</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -606,7 +602,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -618,7 +614,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -630,7 +626,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -642,7 +638,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -654,7 +650,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -666,7 +662,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>483</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -678,7 +674,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>411</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -690,7 +686,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>263</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -702,7 +698,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>309</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -714,7 +710,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>503</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -726,7 +722,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>521</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -738,7 +734,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -750,7 +746,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -762,7 +758,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>268</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -774,7 +770,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>492</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -786,7 +782,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>451</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -798,7 +794,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>437</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,7 +806,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>239</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -822,7 +818,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>370</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -834,7 +830,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -846,7 +842,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -858,7 +854,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +866,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>199</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -882,7 +878,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -894,7 +890,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -906,7 +902,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -918,7 +914,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -930,7 +926,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -942,7 +938,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -954,7 +950,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -966,7 +962,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -978,7 +974,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>383</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -990,7 +986,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1002,7 +998,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1026,7 +1022,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1038,7 +1034,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1050,7 +1046,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>516</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1062,7 +1058,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1074,7 +1070,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>502</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1086,7 +1082,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>326</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1098,7 +1094,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>499</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1110,7 +1106,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>258</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1122,7 +1118,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1134,7 +1130,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>373</v>
+        <v>506</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1146,7 +1142,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>338</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1158,7 +1154,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1170,7 +1166,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>335</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1182,7 +1178,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1206,7 +1202,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C122" ca="1" si="1">INT(RAND()*536)</f>
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1230,7 +1226,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1242,7 +1238,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>197</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1254,7 +1250,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>262</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1266,7 +1262,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>495</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1278,7 +1274,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>336</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1290,7 +1286,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1302,7 +1298,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>141</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1314,7 +1310,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1326,7 +1322,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="1"/>
-        <v>356</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1338,7 +1334,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="1"/>
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1350,7 +1346,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="1"/>
-        <v>525</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1362,7 +1358,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="1"/>
-        <v>247</v>
+        <v>464</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1374,7 +1370,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>450</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1386,7 +1382,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="1"/>
-        <v>412</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1398,7 +1394,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="1"/>
-        <v>437</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1410,7 +1406,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1422,7 +1418,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>530</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1434,7 +1430,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="1"/>
-        <v>255</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -1446,7 +1442,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1458,7 +1454,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>313</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1470,7 +1466,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="1"/>
-        <v>358</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1482,7 +1478,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -1494,7 +1490,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="1"/>
-        <v>452</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1506,7 +1502,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1518,7 +1514,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="1"/>
-        <v>132</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1530,7 +1526,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1542,7 +1538,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="1"/>
-        <v>228</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1554,7 +1550,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="1"/>
-        <v>424</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1566,7 +1562,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="1"/>
-        <v>252</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -1578,7 +1574,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="1"/>
-        <v>431</v>
+        <v>460</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -1590,7 +1586,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="1"/>
-        <v>399</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -1602,7 +1598,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="1"/>
-        <v>248</v>
+        <v>323</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1614,7 +1610,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="1"/>
-        <v>502</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1626,7 +1622,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="1"/>
-        <v>481</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1638,7 +1634,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="1"/>
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1650,7 +1646,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="1"/>
-        <v>150</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1662,7 +1658,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="1"/>
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1674,7 +1670,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1686,7 +1682,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1698,7 +1694,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="1"/>
-        <v>449</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="1"/>
-        <v>285</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1722,7 +1718,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="1"/>
-        <v>374</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1734,7 +1730,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="1"/>
-        <v>314</v>
+        <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -1746,7 +1742,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -1758,7 +1754,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="1"/>
-        <v>418</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -1770,7 +1766,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="1"/>
-        <v>158</v>
+        <v>508</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -1782,7 +1778,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="1"/>
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -1794,7 +1790,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="1"/>
-        <v>198</v>
+        <v>450</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -1806,7 +1802,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="1"/>
-        <v>519</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -1818,7 +1814,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -1830,7 +1826,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>339</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -1842,7 +1838,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="1"/>
-        <v>486</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -1854,7 +1850,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="1"/>
-        <v>355</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -1866,7 +1862,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="1"/>
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -1878,7 +1874,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2865,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C093E5-03ED-44BD-91FE-22A352193DC4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2897,6 +2893,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Inflow_2019_hourly_Sample_Data.xlsx
+++ b/data/Inflow_2019_hourly_Sample_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0bba38a46c8a55f/WAREM/Python ASDF/Final Project/Consumption/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C7D7A8-20B3-4203-8038-A310AB195479}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{A83AF5CF-2447-4B9D-902D-0AC5BF1D2189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95716B3C-E99D-4A90-801D-654F786B5AC3}"/>
   <bookViews>
-    <workbookView xWindow="-1860" yWindow="1260" windowWidth="19240" windowHeight="10910" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{63489928-809B-4B6D-9E60-2B4A10728A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -107,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,7 +438,7 @@
       </c>
       <c r="C2">
         <f ca="1">INT(RAND()*536)</f>
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -446,7 +450,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">INT(RAND()*536)</f>
-        <v>523</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -458,7 +462,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -470,7 +474,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>491</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -482,7 +486,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>396</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -494,7 +498,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -506,7 +510,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>381</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -518,7 +522,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>428</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -530,7 +534,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -542,7 +546,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -554,7 +558,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -566,7 +570,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -578,7 +582,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>519</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -590,7 +594,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -602,7 +606,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -614,7 +618,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -626,7 +630,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>266</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -638,7 +642,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>349</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -650,7 +654,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -662,7 +666,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>103</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -674,7 +678,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -686,7 +690,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>394</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -698,7 +702,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -710,7 +714,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,7 +726,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -734,7 +738,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -746,7 +750,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -758,7 +762,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -770,7 +774,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -782,7 +786,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -794,7 +798,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -806,7 +810,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>420</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -818,7 +822,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -830,7 +834,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -842,7 +846,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -854,7 +858,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -866,7 +870,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -878,7 +882,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -890,7 +894,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>488</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -902,7 +906,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -914,7 +918,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>404</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -926,7 +930,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>335</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -938,7 +942,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -950,7 +954,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -962,7 +966,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -974,7 +978,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -986,7 +990,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -998,7 +1002,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1010,7 +1014,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1022,7 +1026,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="0"/>
-        <v>232</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1034,7 +1038,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>397</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1046,7 +1050,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>328</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1058,7 +1062,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>301</v>
+        <v>461</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1070,7 +1074,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="0"/>
-        <v>509</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1082,7 +1086,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1094,7 +1098,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1106,7 +1110,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1118,7 +1122,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>392</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
@@ -1130,7 +1134,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>506</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1142,7 +1146,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>277</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
@@ -1154,7 +1158,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>399</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1166,7 +1170,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="0"/>
-        <v>300</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
@@ -1178,7 +1182,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>280</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
@@ -1190,7 +1194,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1202,7 +1206,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
@@ -1214,7 +1218,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C122" ca="1" si="1">INT(RAND()*536)</f>
-        <v>196</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1226,7 +1230,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>477</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1238,7 +1242,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>391</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
@@ -1250,7 +1254,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
@@ -1262,7 +1266,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>433</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
@@ -1274,7 +1278,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>291</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
@@ -1286,7 +1290,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>520</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
@@ -1298,7 +1302,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="1"/>
-        <v>419</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
@@ -1310,7 +1314,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
@@ -1322,7 +1326,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="1"/>
-        <v>426</v>
+        <v>520</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
@@ -1334,7 +1338,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
@@ -1346,7 +1350,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="1"/>
-        <v>246</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
@@ -1358,7 +1362,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="1"/>
-        <v>464</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
@@ -1370,7 +1374,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
@@ -1382,7 +1386,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="1"/>
-        <v>311</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
@@ -1394,7 +1398,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="1"/>
-        <v>519</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -1406,7 +1410,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="1"/>
-        <v>166</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
@@ -1418,7 +1422,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="1"/>
-        <v>530</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
@@ -1430,7 +1434,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
@@ -1442,7 +1446,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1454,7 +1458,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="1"/>
-        <v>313</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
@@ -1466,7 +1470,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1478,7 +1482,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
@@ -1490,7 +1494,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="1"/>
-        <v>369</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1502,7 +1506,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="1"/>
-        <v>446</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
@@ -1514,7 +1518,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
@@ -1526,7 +1530,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
@@ -1538,7 +1542,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="1"/>
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
@@ -1550,7 +1554,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
@@ -1562,7 +1566,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="1"/>
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
@@ -1574,7 +1578,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="1"/>
-        <v>460</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
@@ -1586,7 +1590,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
@@ -1598,7 +1602,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="1"/>
-        <v>323</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
@@ -1610,7 +1614,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="1"/>
-        <v>408</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
@@ -1622,7 +1626,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="1"/>
-        <v>523</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
@@ -1634,7 +1638,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="1"/>
-        <v>417</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
@@ -1646,7 +1650,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="1"/>
-        <v>394</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
@@ -1658,7 +1662,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="1"/>
-        <v>412</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
@@ -1670,7 +1674,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="1"/>
-        <v>491</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
@@ -1682,7 +1686,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
@@ -1694,7 +1698,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
@@ -1706,7 +1710,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
@@ -1718,7 +1722,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="1"/>
-        <v>523</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
@@ -1730,7 +1734,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="1"/>
-        <v>469</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
@@ -1742,7 +1746,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
@@ -1754,7 +1758,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
@@ -1766,7 +1770,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="1"/>
-        <v>508</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
@@ -1778,7 +1782,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="1"/>
-        <v>287</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
@@ -1790,7 +1794,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="1"/>
-        <v>450</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
@@ -1802,7 +1806,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
@@ -1814,7 +1818,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="1"/>
-        <v>267</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
@@ -1826,7 +1830,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="1"/>
-        <v>339</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
@@ -1838,7 +1842,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="1"/>
-        <v>316</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -1850,7 +1854,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
@@ -1862,7 +1866,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="1"/>
-        <v>176</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -1874,7 +1878,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="1"/>
-        <v>443</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2879,7 +2883,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>43466</v>
       </c>
       <c r="B2">
         <v>40</v>
@@ -2887,7 +2891,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>43467</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -2895,7 +2899,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>43468</v>
       </c>
       <c r="B4">
         <v>0</v>
